--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Tgfb1-Acvrl1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Tgfb1-Acvrl1.xlsx
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>32.52516566666667</v>
+        <v>58.583</v>
       </c>
       <c r="H2">
-        <v>97.575497</v>
+        <v>175.749</v>
       </c>
       <c r="I2">
-        <v>0.06370711489344116</v>
+        <v>0.1148754272503719</v>
       </c>
       <c r="J2">
-        <v>0.06370711489344116</v>
+        <v>0.1148754272503719</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>17.792572</v>
+        <v>30.10959799999999</v>
       </c>
       <c r="N2">
-        <v>53.37771600000001</v>
+        <v>90.32879399999999</v>
       </c>
       <c r="O2">
-        <v>0.3427330624192283</v>
+        <v>0.5062005690267993</v>
       </c>
       <c r="P2">
-        <v>0.3427330624192283</v>
+        <v>0.5062005690267992</v>
       </c>
       <c r="Q2">
-        <v>578.7063519360947</v>
+        <v>1763.910579634</v>
       </c>
       <c r="R2">
-        <v>5208.357167424852</v>
+        <v>15875.195216706</v>
       </c>
       <c r="S2">
-        <v>0.02183453458532272</v>
+        <v>0.05815000664133492</v>
       </c>
       <c r="T2">
-        <v>0.02183453458532272</v>
+        <v>0.05815000664133491</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>32.52516566666667</v>
+        <v>58.583</v>
       </c>
       <c r="H3">
-        <v>97.575497</v>
+        <v>175.749</v>
       </c>
       <c r="I3">
-        <v>0.06370711489344116</v>
+        <v>0.1148754272503719</v>
       </c>
       <c r="J3">
-        <v>0.06370711489344116</v>
+        <v>0.1148754272503719</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>41.597088</v>
       </c>
       <c r="O3">
-        <v>0.2670908091676708</v>
+        <v>0.2331091635681292</v>
       </c>
       <c r="P3">
-        <v>0.2670908091676709</v>
+        <v>0.2331091635681292</v>
       </c>
       <c r="Q3">
-        <v>450.9840594836373</v>
+        <v>812.294068768</v>
       </c>
       <c r="R3">
-        <v>4058.856535352736</v>
+        <v>7310.646618912</v>
       </c>
       <c r="S3">
-        <v>0.01701558486662697</v>
+        <v>0.02677851476086566</v>
       </c>
       <c r="T3">
-        <v>0.01701558486662698</v>
+        <v>0.02677851476086565</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,16 +667,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>32.52516566666667</v>
+        <v>58.583</v>
       </c>
       <c r="H4">
-        <v>97.575497</v>
+        <v>175.749</v>
       </c>
       <c r="I4">
-        <v>0.06370711489344116</v>
+        <v>0.1148754272503719</v>
       </c>
       <c r="J4">
-        <v>0.06370711489344116</v>
+        <v>0.1148754272503719</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>6.60203</v>
+        <v>7.300670666666666</v>
       </c>
       <c r="N4">
-        <v>19.80609</v>
+        <v>21.902012</v>
       </c>
       <c r="O4">
-        <v>0.1271729551007925</v>
+        <v>0.122738392114831</v>
       </c>
       <c r="P4">
-        <v>0.1271729551007925</v>
+        <v>0.1227383921148309</v>
       </c>
       <c r="Q4">
-        <v>214.7321194863033</v>
+        <v>427.6951896653333</v>
       </c>
       <c r="R4">
-        <v>1932.58907537673</v>
+        <v>3849.256706988</v>
       </c>
       <c r="S4">
-        <v>0.008101822061944619</v>
+        <v>0.01409962523421488</v>
       </c>
       <c r="T4">
-        <v>0.008101822061944621</v>
+        <v>0.01409962523421487</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>32.52516566666667</v>
+        <v>58.583</v>
       </c>
       <c r="H5">
-        <v>97.575497</v>
+        <v>175.749</v>
       </c>
       <c r="I5">
-        <v>0.06370711489344116</v>
+        <v>0.1148754272503719</v>
       </c>
       <c r="J5">
-        <v>0.06370711489344116</v>
+        <v>0.1148754272503719</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>1.870155666666667</v>
+        <v>0.9177576666666667</v>
       </c>
       <c r="N5">
-        <v>5.610467</v>
+        <v>2.753273</v>
       </c>
       <c r="O5">
-        <v>0.036024256573886</v>
+        <v>0.01542928115796745</v>
       </c>
       <c r="P5">
-        <v>0.03602425657388601</v>
+        <v>0.01542928115796744</v>
       </c>
       <c r="Q5">
-        <v>60.82712288078877</v>
+        <v>53.76499738633333</v>
       </c>
       <c r="R5">
-        <v>547.444105927099</v>
+        <v>483.884976477</v>
       </c>
       <c r="S5">
-        <v>0.002295001452503359</v>
+        <v>0.001772445265187623</v>
       </c>
       <c r="T5">
-        <v>0.002295001452503359</v>
+        <v>0.001772445265187622</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,16 +791,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>32.52516566666667</v>
+        <v>58.583</v>
       </c>
       <c r="H6">
-        <v>97.575497</v>
+        <v>175.749</v>
       </c>
       <c r="I6">
-        <v>0.06370711489344116</v>
+        <v>0.1148754272503719</v>
       </c>
       <c r="J6">
-        <v>0.06370711489344116</v>
+        <v>0.1148754272503719</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>1.916929</v>
+        <v>1.836782666666667</v>
       </c>
       <c r="N6">
-        <v>5.750787</v>
+        <v>5.510348</v>
       </c>
       <c r="O6">
-        <v>0.03692523748731935</v>
+        <v>0.03087986864006716</v>
       </c>
       <c r="P6">
-        <v>0.03692523748731937</v>
+        <v>0.03087986864006715</v>
       </c>
       <c r="Q6">
-        <v>62.34843329623767</v>
+        <v>107.6042389613333</v>
       </c>
       <c r="R6">
-        <v>561.1358996661389</v>
+        <v>968.4381506520001</v>
       </c>
       <c r="S6">
-        <v>0.002352400347072255</v>
+        <v>0.003547338103463074</v>
       </c>
       <c r="T6">
-        <v>0.002352400347072256</v>
+        <v>0.003547338103463072</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,16 +853,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>32.52516566666667</v>
+        <v>58.583</v>
       </c>
       <c r="H7">
-        <v>97.575497</v>
+        <v>175.749</v>
       </c>
       <c r="I7">
-        <v>0.06370711489344116</v>
+        <v>0.1148754272503719</v>
       </c>
       <c r="J7">
-        <v>0.06370711489344116</v>
+        <v>0.1148754272503719</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>9.866406666666666</v>
+        <v>5.451052</v>
       </c>
       <c r="N7">
-        <v>29.59922</v>
+        <v>16.353156</v>
       </c>
       <c r="O7">
-        <v>0.190053679251103</v>
+        <v>0.09164272549220594</v>
       </c>
       <c r="P7">
-        <v>0.190053679251103</v>
+        <v>0.09164272549220591</v>
       </c>
       <c r="Q7">
-        <v>320.9065113680377</v>
+        <v>319.338979316</v>
       </c>
       <c r="R7">
-        <v>2888.15860231234</v>
+        <v>2874.050813844</v>
       </c>
       <c r="S7">
-        <v>0.01210777157997123</v>
+        <v>0.0105274972453057</v>
       </c>
       <c r="T7">
-        <v>0.01210777157997124</v>
+        <v>0.0105274972453057</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -921,10 +921,10 @@
         <v>36.467271</v>
       </c>
       <c r="I8">
-        <v>0.02380950848190151</v>
+        <v>0.02383622858041921</v>
       </c>
       <c r="J8">
-        <v>0.02380950848190151</v>
+        <v>0.02383622858041921</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>17.792572</v>
+        <v>30.10959799999999</v>
       </c>
       <c r="N8">
-        <v>53.37771600000001</v>
+        <v>90.32879399999999</v>
       </c>
       <c r="O8">
-        <v>0.3427330624192283</v>
+        <v>0.5062005690267993</v>
       </c>
       <c r="P8">
-        <v>0.3427330624192283</v>
+        <v>0.5062005690267992</v>
       </c>
       <c r="Q8">
-        <v>216.2821816370041</v>
+        <v>366.004956655686</v>
       </c>
       <c r="R8">
-        <v>1946.539634733036</v>
+        <v>3294.044609901174</v>
       </c>
       <c r="S8">
-        <v>0.008160305756698695</v>
+        <v>0.01206591247086106</v>
       </c>
       <c r="T8">
-        <v>0.008160305756698696</v>
+        <v>0.01206591247086106</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -983,10 +983,10 @@
         <v>36.467271</v>
       </c>
       <c r="I9">
-        <v>0.02380950848190151</v>
+        <v>0.02383622858041921</v>
       </c>
       <c r="J9">
-        <v>0.02380950848190151</v>
+        <v>0.02383622858041921</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,10 +1001,10 @@
         <v>41.597088</v>
       </c>
       <c r="O9">
-        <v>0.2670908091676708</v>
+        <v>0.2331091635681292</v>
       </c>
       <c r="P9">
-        <v>0.2670908091676709</v>
+        <v>0.2331091635681292</v>
       </c>
       <c r="Q9">
         <v>168.548031211872</v>
@@ -1013,10 +1013,10 @@
         <v>1516.932280906848</v>
       </c>
       <c r="S9">
-        <v>0.006359300886315596</v>
+        <v>0.005556443307000259</v>
       </c>
       <c r="T9">
-        <v>0.006359300886315597</v>
+        <v>0.005556443307000256</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1045,10 +1045,10 @@
         <v>36.467271</v>
       </c>
       <c r="I10">
-        <v>0.02380950848190151</v>
+        <v>0.02383622858041921</v>
       </c>
       <c r="J10">
-        <v>0.02380950848190151</v>
+        <v>0.02383622858041921</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>6.60203</v>
+        <v>7.300670666666666</v>
       </c>
       <c r="N10">
-        <v>19.80609</v>
+        <v>21.902012</v>
       </c>
       <c r="O10">
-        <v>0.1271729551007925</v>
+        <v>0.122738392114831</v>
       </c>
       <c r="P10">
-        <v>0.1271729551007925</v>
+        <v>0.1227383921148309</v>
       </c>
       <c r="Q10">
-        <v>80.25267238671</v>
+        <v>88.745178561028</v>
       </c>
       <c r="R10">
-        <v>722.2740514803901</v>
+        <v>798.7066070492521</v>
       </c>
       <c r="S10">
-        <v>0.003027925553140798</v>
+        <v>0.002925620370042233</v>
       </c>
       <c r="T10">
-        <v>0.003027925553140799</v>
+        <v>0.002925620370042232</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1107,10 +1107,10 @@
         <v>36.467271</v>
       </c>
       <c r="I11">
-        <v>0.02380950848190151</v>
+        <v>0.02383622858041921</v>
       </c>
       <c r="J11">
-        <v>0.02380950848190151</v>
+        <v>0.02383622858041921</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>1.870155666666667</v>
+        <v>0.9177576666666667</v>
       </c>
       <c r="N11">
-        <v>5.610467</v>
+        <v>2.753273</v>
       </c>
       <c r="O11">
-        <v>0.036024256573886</v>
+        <v>0.01542928115796745</v>
       </c>
       <c r="P11">
-        <v>0.03602425657388601</v>
+        <v>0.01542928115796744</v>
       </c>
       <c r="Q11">
-        <v>22.733157836173</v>
+        <v>11.156039180887</v>
       </c>
       <c r="R11">
-        <v>204.598420525557</v>
+        <v>100.404352627983</v>
       </c>
       <c r="S11">
-        <v>0.0008577198424501349</v>
+        <v>0.0003677758725128673</v>
       </c>
       <c r="T11">
-        <v>0.0008577198424501351</v>
+        <v>0.0003677758725128672</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1169,10 +1169,10 @@
         <v>36.467271</v>
       </c>
       <c r="I12">
-        <v>0.02380950848190151</v>
+        <v>0.02383622858041921</v>
       </c>
       <c r="J12">
-        <v>0.02380950848190151</v>
+        <v>0.02383622858041921</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>1.916929</v>
+        <v>1.836782666666667</v>
       </c>
       <c r="N12">
-        <v>5.750787</v>
+        <v>5.510348</v>
       </c>
       <c r="O12">
-        <v>0.03692523748731935</v>
+        <v>0.03087986864006716</v>
       </c>
       <c r="P12">
-        <v>0.03692523748731937</v>
+        <v>0.03087986864006715</v>
       </c>
       <c r="Q12">
-        <v>23.301723110253</v>
+        <v>22.327483757812</v>
       </c>
       <c r="R12">
-        <v>209.715507992277</v>
+        <v>200.947353820308</v>
       </c>
       <c r="S12">
-        <v>0.0008791717551505576</v>
+        <v>0.0007360596074379597</v>
       </c>
       <c r="T12">
-        <v>0.0008791717551505581</v>
+        <v>0.0007360596074379593</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1231,10 +1231,10 @@
         <v>36.467271</v>
       </c>
       <c r="I13">
-        <v>0.02380950848190151</v>
+        <v>0.02383622858041921</v>
       </c>
       <c r="J13">
-        <v>0.02380950848190151</v>
+        <v>0.02383622858041921</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>9.866406666666666</v>
+        <v>5.451052</v>
       </c>
       <c r="N13">
-        <v>29.59922</v>
+        <v>16.353156</v>
       </c>
       <c r="O13">
-        <v>0.190053679251103</v>
+        <v>0.09164272549220594</v>
       </c>
       <c r="P13">
-        <v>0.190053679251103</v>
+        <v>0.09164272549220591</v>
       </c>
       <c r="Q13">
-        <v>119.93364190318</v>
+        <v>66.261663506364</v>
       </c>
       <c r="R13">
-        <v>1079.40277712862</v>
+        <v>596.354971557276</v>
       </c>
       <c r="S13">
-        <v>0.004525084688145725</v>
+        <v>0.002184416952564831</v>
       </c>
       <c r="T13">
-        <v>0.004525084688145727</v>
+        <v>0.00218441695256483</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1287,16 +1287,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>151.0671593333333</v>
+        <v>147.7012863333333</v>
       </c>
       <c r="H14">
-        <v>453.201478</v>
+        <v>443.103859</v>
       </c>
       <c r="I14">
-        <v>0.2958955835892216</v>
+        <v>0.289627509225734</v>
       </c>
       <c r="J14">
-        <v>0.2958955835892217</v>
+        <v>0.289627509225734</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>17.792572</v>
+        <v>30.10959799999999</v>
       </c>
       <c r="N14">
-        <v>53.37771600000001</v>
+        <v>90.32879399999999</v>
       </c>
       <c r="O14">
-        <v>0.3427330624192283</v>
+        <v>0.5062005690267993</v>
       </c>
       <c r="P14">
-        <v>0.3427330624192283</v>
+        <v>0.5062005690267992</v>
       </c>
       <c r="Q14">
-        <v>2687.873309273806</v>
+        <v>4447.22635557956</v>
       </c>
       <c r="R14">
-        <v>24190.85978346425</v>
+        <v>40025.03720021604</v>
       </c>
       <c r="S14">
-        <v>0.1014131995198587</v>
+        <v>0.1466096099758812</v>
       </c>
       <c r="T14">
-        <v>0.1014131995198587</v>
+        <v>0.1466096099758811</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1349,16 +1349,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>151.0671593333333</v>
+        <v>147.7012863333333</v>
       </c>
       <c r="H15">
-        <v>453.201478</v>
+        <v>443.103859</v>
       </c>
       <c r="I15">
-        <v>0.2958955835892216</v>
+        <v>0.289627509225734</v>
       </c>
       <c r="J15">
-        <v>0.2958955835892217</v>
+        <v>0.289627509225734</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1373,22 +1373,22 @@
         <v>41.597088</v>
       </c>
       <c r="O15">
-        <v>0.2670908091676708</v>
+        <v>0.2331091635681292</v>
       </c>
       <c r="P15">
-        <v>0.2670908091676709</v>
+        <v>0.2331091635681292</v>
       </c>
       <c r="Q15">
-        <v>2094.651306899563</v>
+        <v>2047.981135106955</v>
       </c>
       <c r="R15">
-        <v>18851.86176209606</v>
+        <v>18431.83021596259</v>
       </c>
       <c r="S15">
-        <v>0.07903099084998538</v>
+        <v>0.0675148264219315</v>
       </c>
       <c r="T15">
-        <v>0.07903099084998541</v>
+        <v>0.06751482642193146</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1411,16 +1411,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>151.0671593333333</v>
+        <v>147.7012863333333</v>
       </c>
       <c r="H16">
-        <v>453.201478</v>
+        <v>443.103859</v>
       </c>
       <c r="I16">
-        <v>0.2958955835892216</v>
+        <v>0.289627509225734</v>
       </c>
       <c r="J16">
-        <v>0.2958955835892217</v>
+        <v>0.289627509225734</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>6.60203</v>
+        <v>7.300670666666666</v>
       </c>
       <c r="N16">
-        <v>19.80609</v>
+        <v>21.902012</v>
       </c>
       <c r="O16">
-        <v>0.1271729551007925</v>
+        <v>0.122738392114831</v>
       </c>
       <c r="P16">
-        <v>0.1271729551007925</v>
+        <v>0.1227383921148309</v>
       </c>
       <c r="Q16">
-        <v>997.3499179334467</v>
+        <v>1078.318448562701</v>
       </c>
       <c r="R16">
-        <v>8976.14926140102</v>
+        <v>9704.866037064308</v>
       </c>
       <c r="S16">
-        <v>0.03762991576631487</v>
+        <v>0.03554841479458996</v>
       </c>
       <c r="T16">
-        <v>0.03762991576631488</v>
+        <v>0.03554841479458994</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1473,16 +1473,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>151.0671593333333</v>
+        <v>147.7012863333333</v>
       </c>
       <c r="H17">
-        <v>453.201478</v>
+        <v>443.103859</v>
       </c>
       <c r="I17">
-        <v>0.2958955835892216</v>
+        <v>0.289627509225734</v>
       </c>
       <c r="J17">
-        <v>0.2958955835892217</v>
+        <v>0.289627509225734</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>1.870155666666667</v>
+        <v>0.9177576666666667</v>
       </c>
       <c r="N17">
-        <v>5.610467</v>
+        <v>2.753273</v>
       </c>
       <c r="O17">
-        <v>0.036024256573886</v>
+        <v>0.01542928115796745</v>
       </c>
       <c r="P17">
-        <v>0.03602425657388601</v>
+        <v>0.01542928115796744</v>
       </c>
       <c r="Q17">
-        <v>282.5191040744696</v>
+        <v>135.5539879089452</v>
       </c>
       <c r="R17">
-        <v>2542.671936670226</v>
+        <v>1219.985891180507</v>
       </c>
       <c r="S17">
-        <v>0.01065941842229785</v>
+        <v>0.004468744270925662</v>
       </c>
       <c r="T17">
-        <v>0.01065941842229786</v>
+        <v>0.00446874427092566</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1535,16 +1535,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>151.0671593333333</v>
+        <v>147.7012863333333</v>
       </c>
       <c r="H18">
-        <v>453.201478</v>
+        <v>443.103859</v>
       </c>
       <c r="I18">
-        <v>0.2958955835892216</v>
+        <v>0.289627509225734</v>
       </c>
       <c r="J18">
-        <v>0.2958955835892217</v>
+        <v>0.289627509225734</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>1.916929</v>
+        <v>1.836782666666667</v>
       </c>
       <c r="N18">
-        <v>5.750787</v>
+        <v>5.510348</v>
       </c>
       <c r="O18">
-        <v>0.03692523748731935</v>
+        <v>0.03087986864006716</v>
       </c>
       <c r="P18">
-        <v>0.03692523748731937</v>
+        <v>0.03087986864006715</v>
       </c>
       <c r="Q18">
-        <v>289.5850186736873</v>
+        <v>271.295162581437</v>
       </c>
       <c r="R18">
-        <v>2606.265168063186</v>
+        <v>2441.656463232932</v>
       </c>
       <c r="S18">
-        <v>0.01092601469548096</v>
+        <v>0.008943659439440506</v>
       </c>
       <c r="T18">
-        <v>0.01092601469548097</v>
+        <v>0.008943659439440501</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1597,16 +1597,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>151.0671593333333</v>
+        <v>147.7012863333333</v>
       </c>
       <c r="H19">
-        <v>453.201478</v>
+        <v>443.103859</v>
       </c>
       <c r="I19">
-        <v>0.2958955835892216</v>
+        <v>0.289627509225734</v>
       </c>
       <c r="J19">
-        <v>0.2958955835892217</v>
+        <v>0.289627509225734</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>9.866406666666666</v>
+        <v>5.451052</v>
       </c>
       <c r="N19">
-        <v>29.59922</v>
+        <v>16.353156</v>
       </c>
       <c r="O19">
-        <v>0.190053679251103</v>
+        <v>0.09164272549220594</v>
       </c>
       <c r="P19">
-        <v>0.190053679251103</v>
+        <v>0.09164272549220591</v>
       </c>
       <c r="Q19">
-        <v>1490.490027960795</v>
+        <v>805.1273922698894</v>
       </c>
       <c r="R19">
-        <v>13414.41025164716</v>
+        <v>7246.146530429003</v>
       </c>
       <c r="S19">
-        <v>0.05623604433528386</v>
+        <v>0.02654225432296529</v>
       </c>
       <c r="T19">
-        <v>0.05623604433528388</v>
+        <v>0.02654225432296527</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1659,16 +1659,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>9.743353333333333</v>
+        <v>6.990769</v>
       </c>
       <c r="H20">
-        <v>29.23006</v>
+        <v>20.972307</v>
       </c>
       <c r="I20">
-        <v>0.01908432801282251</v>
+        <v>0.01370820162305882</v>
       </c>
       <c r="J20">
-        <v>0.01908432801282251</v>
+        <v>0.01370820162305882</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>17.792572</v>
+        <v>30.10959799999999</v>
       </c>
       <c r="N20">
-        <v>53.37771600000001</v>
+        <v>90.32879399999999</v>
       </c>
       <c r="O20">
-        <v>0.3427330624192283</v>
+        <v>0.5062005690267993</v>
       </c>
       <c r="P20">
-        <v>0.3427330624192283</v>
+        <v>0.5062005690267992</v>
       </c>
       <c r="Q20">
-        <v>173.3593157047734</v>
+        <v>210.489244300862</v>
       </c>
       <c r="R20">
-        <v>1560.23384134296</v>
+        <v>1894.403198707758</v>
       </c>
       <c r="S20">
-        <v>0.006540830184047723</v>
+        <v>0.006939099461926468</v>
       </c>
       <c r="T20">
-        <v>0.006540830184047725</v>
+        <v>0.006939099461926467</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1721,16 +1721,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>9.743353333333333</v>
+        <v>6.990769</v>
       </c>
       <c r="H21">
-        <v>29.23006</v>
+        <v>20.972307</v>
       </c>
       <c r="I21">
-        <v>0.01908432801282251</v>
+        <v>0.01370820162305882</v>
       </c>
       <c r="J21">
-        <v>0.01908432801282251</v>
+        <v>0.01370820162305882</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1745,22 +1745,22 @@
         <v>41.597088</v>
       </c>
       <c r="O21">
-        <v>0.2670908091676708</v>
+        <v>0.2331091635681292</v>
       </c>
       <c r="P21">
-        <v>0.2670908091676709</v>
+        <v>0.2331091635681292</v>
       </c>
       <c r="Q21">
-        <v>135.0983753405867</v>
+        <v>96.931877760224</v>
       </c>
       <c r="R21">
-        <v>1215.88537806528</v>
+        <v>872.386899842016</v>
       </c>
       <c r="S21">
-        <v>0.00509724861136601</v>
+        <v>0.003195507414374513</v>
       </c>
       <c r="T21">
-        <v>0.005097248611366013</v>
+        <v>0.003195507414374512</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1783,16 +1783,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>9.743353333333333</v>
+        <v>6.990769</v>
       </c>
       <c r="H22">
-        <v>29.23006</v>
+        <v>20.972307</v>
       </c>
       <c r="I22">
-        <v>0.01908432801282251</v>
+        <v>0.01370820162305882</v>
       </c>
       <c r="J22">
-        <v>0.01908432801282251</v>
+        <v>0.01370820162305882</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1801,28 +1801,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>6.60203</v>
+        <v>7.300670666666666</v>
       </c>
       <c r="N22">
-        <v>19.80609</v>
+        <v>21.902012</v>
       </c>
       <c r="O22">
-        <v>0.1271729551007925</v>
+        <v>0.122738392114831</v>
       </c>
       <c r="P22">
-        <v>0.1271729551007925</v>
+        <v>0.1227383921148309</v>
       </c>
       <c r="Q22">
-        <v>64.32591100726667</v>
+        <v>51.03730217574267</v>
       </c>
       <c r="R22">
-        <v>578.9331990654</v>
+        <v>459.335719581684</v>
       </c>
       <c r="S22">
-        <v>0.002427010389503473</v>
+        <v>0.001682522626000155</v>
       </c>
       <c r="T22">
-        <v>0.002427010389503474</v>
+        <v>0.001682522626000155</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1845,16 +1845,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>9.743353333333333</v>
+        <v>6.990769</v>
       </c>
       <c r="H23">
-        <v>29.23006</v>
+        <v>20.972307</v>
       </c>
       <c r="I23">
-        <v>0.01908432801282251</v>
+        <v>0.01370820162305882</v>
       </c>
       <c r="J23">
-        <v>0.01908432801282251</v>
+        <v>0.01370820162305882</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>1.870155666666667</v>
+        <v>0.9177576666666667</v>
       </c>
       <c r="N23">
-        <v>5.610467</v>
+        <v>2.753273</v>
       </c>
       <c r="O23">
-        <v>0.036024256573886</v>
+        <v>0.01542928115796745</v>
       </c>
       <c r="P23">
-        <v>0.03602425657388601</v>
+        <v>0.01542928115796744</v>
       </c>
       <c r="Q23">
-        <v>18.22158744866889</v>
+        <v>6.415831845645667</v>
       </c>
       <c r="R23">
-        <v>163.99428703802</v>
+        <v>57.74248661081101</v>
       </c>
       <c r="S23">
-        <v>0.000687498728874118</v>
+        <v>0.0002115076970122802</v>
       </c>
       <c r="T23">
-        <v>0.0006874987288741182</v>
+        <v>0.0002115076970122802</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1907,16 +1907,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>9.743353333333333</v>
+        <v>6.990769</v>
       </c>
       <c r="H24">
-        <v>29.23006</v>
+        <v>20.972307</v>
       </c>
       <c r="I24">
-        <v>0.01908432801282251</v>
+        <v>0.01370820162305882</v>
       </c>
       <c r="J24">
-        <v>0.01908432801282251</v>
+        <v>0.01370820162305882</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,28 +1925,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>1.916929</v>
+        <v>1.836782666666667</v>
       </c>
       <c r="N24">
-        <v>5.750787</v>
+        <v>5.510348</v>
       </c>
       <c r="O24">
-        <v>0.03692523748731935</v>
+        <v>0.03087986864006716</v>
       </c>
       <c r="P24">
-        <v>0.03692523748731937</v>
+        <v>0.03087986864006715</v>
       </c>
       <c r="Q24">
-        <v>18.67731656191333</v>
+        <v>12.84052332587067</v>
       </c>
       <c r="R24">
-        <v>168.09584905722</v>
+        <v>115.564709932836</v>
       </c>
       <c r="S24">
-        <v>0.0007046933441593725</v>
+        <v>0.0004233074654116118</v>
       </c>
       <c r="T24">
-        <v>0.0007046933441593729</v>
+        <v>0.0004233074654116116</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1969,16 +1969,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>9.743353333333333</v>
+        <v>6.990769</v>
       </c>
       <c r="H25">
-        <v>29.23006</v>
+        <v>20.972307</v>
       </c>
       <c r="I25">
-        <v>0.01908432801282251</v>
+        <v>0.01370820162305882</v>
       </c>
       <c r="J25">
-        <v>0.01908432801282251</v>
+        <v>0.01370820162305882</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1987,28 +1987,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>9.866406666666666</v>
+        <v>5.451052</v>
       </c>
       <c r="N25">
-        <v>29.59922</v>
+        <v>16.353156</v>
       </c>
       <c r="O25">
-        <v>0.190053679251103</v>
+        <v>0.09164272549220594</v>
       </c>
       <c r="P25">
-        <v>0.190053679251103</v>
+        <v>0.09164272549220591</v>
       </c>
       <c r="Q25">
-        <v>96.13188628368889</v>
+        <v>38.107045338988</v>
       </c>
       <c r="R25">
-        <v>865.1869765531999</v>
+        <v>342.963408050892</v>
       </c>
       <c r="S25">
-        <v>0.003627046754871808</v>
+        <v>0.001256256958333791</v>
       </c>
       <c r="T25">
-        <v>0.00362704675487181</v>
+        <v>0.001256256958333791</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2031,16 +2031,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>142.5917893333333</v>
+        <v>187.8101756666667</v>
       </c>
       <c r="H26">
-        <v>427.775368</v>
+        <v>563.430527</v>
       </c>
       <c r="I26">
-        <v>0.2792948573734662</v>
+        <v>0.3682770457585942</v>
       </c>
       <c r="J26">
-        <v>0.2792948573734662</v>
+        <v>0.3682770457585942</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2049,28 +2049,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>17.792572</v>
+        <v>30.10959799999999</v>
       </c>
       <c r="N26">
-        <v>53.37771600000001</v>
+        <v>90.32879399999999</v>
       </c>
       <c r="O26">
-        <v>0.3427330624192283</v>
+        <v>0.5062005690267993</v>
       </c>
       <c r="P26">
-        <v>0.3427330624192283</v>
+        <v>0.5062005690267992</v>
       </c>
       <c r="Q26">
-        <v>2537.074678322166</v>
+        <v>5654.888889632713</v>
       </c>
       <c r="R26">
-        <v>22833.67210489949</v>
+        <v>50894.00000669443</v>
       </c>
       <c r="S26">
-        <v>0.09572358178554964</v>
+        <v>0.186422050122509</v>
       </c>
       <c r="T26">
-        <v>0.09572358178554964</v>
+        <v>0.1864220501225089</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2093,16 +2093,16 @@
         <v>1</v>
       </c>
       <c r="G27">
-        <v>142.5917893333333</v>
+        <v>187.8101756666667</v>
       </c>
       <c r="H27">
-        <v>427.775368</v>
+        <v>563.430527</v>
       </c>
       <c r="I27">
-        <v>0.2792948573734662</v>
+        <v>0.3682770457585942</v>
       </c>
       <c r="J27">
-        <v>0.2792948573734662</v>
+        <v>0.3682770457585942</v>
       </c>
       <c r="K27">
         <v>3</v>
@@ -2117,22 +2117,22 @@
         <v>41.597088</v>
       </c>
       <c r="O27">
-        <v>0.2670908091676708</v>
+        <v>0.2331091635681292</v>
       </c>
       <c r="P27">
-        <v>0.2670908091676709</v>
+        <v>0.2331091635681292</v>
       </c>
       <c r="Q27">
-        <v>1977.134402992043</v>
+        <v>2604.118801500597</v>
       </c>
       <c r="R27">
-        <v>17794.20962692838</v>
+        <v>23437.06921350538</v>
       </c>
       <c r="S27">
-        <v>0.07459708945224829</v>
+        <v>0.08584875409812755</v>
       </c>
       <c r="T27">
-        <v>0.0745970894522483</v>
+        <v>0.08584875409812752</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2155,16 +2155,16 @@
         <v>1</v>
       </c>
       <c r="G28">
-        <v>142.5917893333333</v>
+        <v>187.8101756666667</v>
       </c>
       <c r="H28">
-        <v>427.775368</v>
+        <v>563.430527</v>
       </c>
       <c r="I28">
-        <v>0.2792948573734662</v>
+        <v>0.3682770457585942</v>
       </c>
       <c r="J28">
-        <v>0.2792948573734662</v>
+        <v>0.3682770457585942</v>
       </c>
       <c r="K28">
         <v>3</v>
@@ -2173,28 +2173,28 @@
         <v>1</v>
       </c>
       <c r="M28">
-        <v>6.60203</v>
+        <v>7.300670666666666</v>
       </c>
       <c r="N28">
-        <v>19.80609</v>
+        <v>21.902012</v>
       </c>
       <c r="O28">
-        <v>0.1271729551007925</v>
+        <v>0.122738392114831</v>
       </c>
       <c r="P28">
-        <v>0.1271729551007925</v>
+        <v>0.1227383921148309</v>
       </c>
       <c r="Q28">
-        <v>941.3952709323468</v>
+        <v>1371.140240391147</v>
       </c>
       <c r="R28">
-        <v>8472.557438391121</v>
+        <v>12340.26216352032</v>
       </c>
       <c r="S28">
-        <v>0.03551875235663805</v>
+        <v>0.04520173244920987</v>
       </c>
       <c r="T28">
-        <v>0.03551875235663805</v>
+        <v>0.04520173244920986</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2217,16 +2217,16 @@
         <v>1</v>
       </c>
       <c r="G29">
-        <v>142.5917893333333</v>
+        <v>187.8101756666667</v>
       </c>
       <c r="H29">
-        <v>427.775368</v>
+        <v>563.430527</v>
       </c>
       <c r="I29">
-        <v>0.2792948573734662</v>
+        <v>0.3682770457585942</v>
       </c>
       <c r="J29">
-        <v>0.2792948573734662</v>
+        <v>0.3682770457585942</v>
       </c>
       <c r="K29">
         <v>3</v>
@@ -2235,28 +2235,28 @@
         <v>1</v>
       </c>
       <c r="M29">
-        <v>1.870155666666667</v>
+        <v>0.9177576666666667</v>
       </c>
       <c r="N29">
-        <v>5.610467</v>
+        <v>2.753273</v>
       </c>
       <c r="O29">
-        <v>0.036024256573886</v>
+        <v>0.01542928115796745</v>
       </c>
       <c r="P29">
-        <v>0.03602425657388601</v>
+        <v>0.01542928115796744</v>
       </c>
       <c r="Q29">
-        <v>266.6688428418729</v>
+        <v>172.3642285960968</v>
       </c>
       <c r="R29">
-        <v>2400.019585576856</v>
+        <v>1551.278057364871</v>
       </c>
       <c r="S29">
-        <v>0.01006138960178864</v>
+        <v>0.005682250083034993</v>
       </c>
       <c r="T29">
-        <v>0.01006138960178864</v>
+        <v>0.005682250083034991</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2279,16 +2279,16 @@
         <v>1</v>
       </c>
       <c r="G30">
-        <v>142.5917893333333</v>
+        <v>187.8101756666667</v>
       </c>
       <c r="H30">
-        <v>427.775368</v>
+        <v>563.430527</v>
       </c>
       <c r="I30">
-        <v>0.2792948573734662</v>
+        <v>0.3682770457585942</v>
       </c>
       <c r="J30">
-        <v>0.2792948573734662</v>
+        <v>0.3682770457585942</v>
       </c>
       <c r="K30">
         <v>3</v>
@@ -2297,28 +2297,28 @@
         <v>1</v>
       </c>
       <c r="M30">
-        <v>1.916929</v>
+        <v>1.836782666666667</v>
       </c>
       <c r="N30">
-        <v>5.750787</v>
+        <v>5.510348</v>
       </c>
       <c r="O30">
-        <v>0.03692523748731935</v>
+        <v>0.03087986864006716</v>
       </c>
       <c r="P30">
-        <v>0.03692523748731937</v>
+        <v>0.03087986864006715</v>
       </c>
       <c r="Q30">
-        <v>273.3383361349573</v>
+        <v>344.9664752881552</v>
       </c>
       <c r="R30">
-        <v>2460.045025214616</v>
+        <v>3104.698277593396</v>
       </c>
       <c r="S30">
-        <v>0.01031302893750222</v>
+        <v>0.01137234679617739</v>
       </c>
       <c r="T30">
-        <v>0.01031302893750223</v>
+        <v>0.01137234679617738</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2341,16 +2341,16 @@
         <v>1</v>
       </c>
       <c r="G31">
-        <v>142.5917893333333</v>
+        <v>187.8101756666667</v>
       </c>
       <c r="H31">
-        <v>427.775368</v>
+        <v>563.430527</v>
       </c>
       <c r="I31">
-        <v>0.2792948573734662</v>
+        <v>0.3682770457585942</v>
       </c>
       <c r="J31">
-        <v>0.2792948573734662</v>
+        <v>0.3682770457585942</v>
       </c>
       <c r="K31">
         <v>3</v>
@@ -2359,28 +2359,28 @@
         <v>1</v>
       </c>
       <c r="M31">
-        <v>9.866406666666666</v>
+        <v>5.451052</v>
       </c>
       <c r="N31">
-        <v>29.59922</v>
+        <v>16.353156</v>
       </c>
       <c r="O31">
-        <v>0.190053679251103</v>
+        <v>0.09164272549220594</v>
       </c>
       <c r="P31">
-        <v>0.190053679251103</v>
+        <v>0.09164272549220591</v>
       </c>
       <c r="Q31">
-        <v>1406.868580890329</v>
+        <v>1023.763033688135</v>
       </c>
       <c r="R31">
-        <v>12661.81722801296</v>
+        <v>9213.86730319321</v>
       </c>
       <c r="S31">
-        <v>0.05308101523973929</v>
+        <v>0.03374991220953541</v>
       </c>
       <c r="T31">
-        <v>0.05308101523973931</v>
+        <v>0.0337499122095354</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2403,16 +2403,16 @@
         <v>1</v>
       </c>
       <c r="G32">
-        <v>162.458898</v>
+        <v>96.72882366666666</v>
       </c>
       <c r="H32">
-        <v>487.376694</v>
+        <v>290.186471</v>
       </c>
       <c r="I32">
-        <v>0.3182086076491469</v>
+        <v>0.1896755875618219</v>
       </c>
       <c r="J32">
-        <v>0.318208607649147</v>
+        <v>0.1896755875618219</v>
       </c>
       <c r="K32">
         <v>3</v>
@@ -2421,28 +2421,28 @@
         <v>1</v>
       </c>
       <c r="M32">
-        <v>17.792572</v>
+        <v>30.10959799999999</v>
       </c>
       <c r="N32">
-        <v>53.37771600000001</v>
+        <v>90.32879399999999</v>
       </c>
       <c r="O32">
-        <v>0.3427330624192283</v>
+        <v>0.5062005690267993</v>
       </c>
       <c r="P32">
-        <v>0.3427330624192283</v>
+        <v>0.5062005690267992</v>
       </c>
       <c r="Q32">
-        <v>2890.561639705656</v>
+        <v>2912.465995616219</v>
       </c>
       <c r="R32">
-        <v>26015.05475735091</v>
+        <v>26212.19396054597</v>
       </c>
       <c r="S32">
-        <v>0.1090606105877508</v>
+        <v>0.09601389035428674</v>
       </c>
       <c r="T32">
-        <v>0.1090606105877508</v>
+        <v>0.09601389035428673</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2465,16 +2465,16 @@
         <v>1</v>
       </c>
       <c r="G33">
-        <v>162.458898</v>
+        <v>96.72882366666666</v>
       </c>
       <c r="H33">
-        <v>487.376694</v>
+        <v>290.186471</v>
       </c>
       <c r="I33">
-        <v>0.3182086076491469</v>
+        <v>0.1896755875618219</v>
       </c>
       <c r="J33">
-        <v>0.318208607649147</v>
+        <v>0.1896755875618219</v>
       </c>
       <c r="K33">
         <v>3</v>
@@ -2489,22 +2489,22 @@
         <v>41.597088</v>
       </c>
       <c r="O33">
-        <v>0.2670908091676708</v>
+        <v>0.2331091635681292</v>
       </c>
       <c r="P33">
-        <v>0.2670908091676709</v>
+        <v>0.2331091635681292</v>
       </c>
       <c r="Q33">
-        <v>2252.605692163008</v>
+        <v>1341.212463399605</v>
       </c>
       <c r="R33">
-        <v>20273.45122946707</v>
+        <v>12070.91217059645</v>
       </c>
       <c r="S33">
-        <v>0.08499059450112853</v>
+        <v>0.04421511756582976</v>
       </c>
       <c r="T33">
-        <v>0.08499059450112857</v>
+        <v>0.04421511756582975</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2527,16 +2527,16 @@
         <v>1</v>
       </c>
       <c r="G34">
-        <v>162.458898</v>
+        <v>96.72882366666666</v>
       </c>
       <c r="H34">
-        <v>487.376694</v>
+        <v>290.186471</v>
       </c>
       <c r="I34">
-        <v>0.3182086076491469</v>
+        <v>0.1896755875618219</v>
       </c>
       <c r="J34">
-        <v>0.318208607649147</v>
+        <v>0.1896755875618219</v>
       </c>
       <c r="K34">
         <v>3</v>
@@ -2545,28 +2545,28 @@
         <v>1</v>
       </c>
       <c r="M34">
-        <v>6.60203</v>
+        <v>7.300670666666666</v>
       </c>
       <c r="N34">
-        <v>19.80609</v>
+        <v>21.902012</v>
       </c>
       <c r="O34">
-        <v>0.1271729551007925</v>
+        <v>0.122738392114831</v>
       </c>
       <c r="P34">
-        <v>0.1271729551007925</v>
+        <v>0.1227383921148309</v>
       </c>
       <c r="Q34">
-        <v>1072.55851836294</v>
+        <v>706.1852855644056</v>
       </c>
       <c r="R34">
-        <v>9653.026665266461</v>
+        <v>6355.667570079651</v>
       </c>
       <c r="S34">
-        <v>0.04046752897325065</v>
+        <v>0.02328047664077385</v>
       </c>
       <c r="T34">
-        <v>0.04046752897325066</v>
+        <v>0.02328047664077384</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2589,16 +2589,16 @@
         <v>1</v>
       </c>
       <c r="G35">
-        <v>162.458898</v>
+        <v>96.72882366666666</v>
       </c>
       <c r="H35">
-        <v>487.376694</v>
+        <v>290.186471</v>
       </c>
       <c r="I35">
-        <v>0.3182086076491469</v>
+        <v>0.1896755875618219</v>
       </c>
       <c r="J35">
-        <v>0.318208607649147</v>
+        <v>0.1896755875618219</v>
       </c>
       <c r="K35">
         <v>3</v>
@@ -2607,28 +2607,28 @@
         <v>1</v>
       </c>
       <c r="M35">
-        <v>1.870155666666667</v>
+        <v>0.9177576666666667</v>
       </c>
       <c r="N35">
-        <v>5.610467</v>
+        <v>2.753273</v>
       </c>
       <c r="O35">
-        <v>0.036024256573886</v>
+        <v>0.01542928115796745</v>
       </c>
       <c r="P35">
-        <v>0.03602425657388601</v>
+        <v>0.01542928115796744</v>
       </c>
       <c r="Q35">
-        <v>303.823428695122</v>
+        <v>88.77361950773144</v>
       </c>
       <c r="R35">
-        <v>2734.410858256098</v>
+        <v>798.962575569583</v>
       </c>
       <c r="S35">
-        <v>0.01146322852597189</v>
+        <v>0.002926557969294024</v>
       </c>
       <c r="T35">
-        <v>0.0114632285259719</v>
+        <v>0.002926557969294023</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2651,16 +2651,16 @@
         <v>1</v>
       </c>
       <c r="G36">
-        <v>162.458898</v>
+        <v>96.72882366666666</v>
       </c>
       <c r="H36">
-        <v>487.376694</v>
+        <v>290.186471</v>
       </c>
       <c r="I36">
-        <v>0.3182086076491469</v>
+        <v>0.1896755875618219</v>
       </c>
       <c r="J36">
-        <v>0.318208607649147</v>
+        <v>0.1896755875618219</v>
       </c>
       <c r="K36">
         <v>3</v>
@@ -2669,28 +2669,28 @@
         <v>1</v>
       </c>
       <c r="M36">
-        <v>1.916929</v>
+        <v>1.836782666666667</v>
       </c>
       <c r="N36">
-        <v>5.750787</v>
+        <v>5.510348</v>
       </c>
       <c r="O36">
-        <v>0.03692523748731935</v>
+        <v>0.03087986864006716</v>
       </c>
       <c r="P36">
-        <v>0.03692523748731937</v>
+        <v>0.03087986864006715</v>
       </c>
       <c r="Q36">
-        <v>311.422172884242</v>
+        <v>177.6698266779898</v>
       </c>
       <c r="R36">
-        <v>2802.799555958178</v>
+        <v>1599.028440101908</v>
       </c>
       <c r="S36">
-        <v>0.01174992840795398</v>
+        <v>0.005857157228136617</v>
       </c>
       <c r="T36">
-        <v>0.01174992840795398</v>
+        <v>0.005857157228136615</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2713,16 +2713,16 @@
         <v>1</v>
       </c>
       <c r="G37">
-        <v>162.458898</v>
+        <v>96.72882366666666</v>
       </c>
       <c r="H37">
-        <v>487.376694</v>
+        <v>290.186471</v>
       </c>
       <c r="I37">
-        <v>0.3182086076491469</v>
+        <v>0.1896755875618219</v>
       </c>
       <c r="J37">
-        <v>0.318208607649147</v>
+        <v>0.1896755875618219</v>
       </c>
       <c r="K37">
         <v>3</v>
@@ -2731,28 +2731,28 @@
         <v>1</v>
       </c>
       <c r="M37">
-        <v>9.866406666666666</v>
+        <v>5.451052</v>
       </c>
       <c r="N37">
-        <v>29.59922</v>
+        <v>16.353156</v>
       </c>
       <c r="O37">
-        <v>0.190053679251103</v>
+        <v>0.09164272549220594</v>
       </c>
       <c r="P37">
-        <v>0.190053679251103</v>
+        <v>0.09164272549220591</v>
       </c>
       <c r="Q37">
-        <v>1602.88555428652</v>
+        <v>527.2738477058306</v>
       </c>
       <c r="R37">
-        <v>14425.96998857868</v>
+        <v>4745.464629352476</v>
       </c>
       <c r="S37">
-        <v>0.06047671665309105</v>
+        <v>0.01738238780350091</v>
       </c>
       <c r="T37">
-        <v>0.06047671665309107</v>
+        <v>0.01738238780350091</v>
       </c>
     </row>
   </sheetData>
